--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/GritaSkillTable.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/GritaSkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F873FE92-3984-4C46-B7F9-D6B11964F5F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964E2355-5BD7-4BD7-87BE-2ADB1CCE5568}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17025" windowHeight="7875" xr2:uid="{CF8620D6-7292-4E8C-8303-344569A6BA25}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="E5">
         <v>4</v>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/GritaSkillTable.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/GritaSkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964E2355-5BD7-4BD7-87BE-2ADB1CCE5568}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD58ABA-B22F-49CB-B115-5B6C3769177D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17025" windowHeight="7875" xr2:uid="{CF8620D6-7292-4E8C-8303-344569A6BA25}"/>
   </bookViews>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E5">
         <v>4</v>
